--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EC1EF-1C19-4FEE-9891-D198AE25C8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67416F4B-08E2-45B0-99B6-F1B96CDE64F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67416F4B-08E2-45B0-99B6-F1B96CDE64F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07703F-4A8E-4924-9554-625D7C83A476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07703F-4A8E-4924-9554-625D7C83A476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C49A2-BE53-4A2E-9AEE-CC346126F1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935C49A2-BE53-4A2E-9AEE-CC346126F1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A8E6E-A86D-4ECA-9BB2-29ABAF2030A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="8" r:id="rId1"/>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57A8E6E-A86D-4ECA-9BB2-29ABAF2030A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020115E-A906-4D18-BF89-F9FDF1A2BDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="8" r:id="rId1"/>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5020115E-A906-4D18-BF89-F9FDF1A2BDB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D96FE1-B014-4BEB-B7A7-CE2A74A5A320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="8" r:id="rId1"/>
+    <sheet name="Distance Correlation" sheetId="9" r:id="rId1"/>
+    <sheet name="RMS Similarity" sheetId="10" r:id="rId2"/>
+    <sheet name="Scores" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -375,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDF5D4A-DC17-46A6-B811-E8DAD1E64E52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543392B2-F5D2-4991-A635-2D62A8A3BD5A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -384,4 +386,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1074CF9F-2D5A-4C4F-A818-987FF75318E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDF5D4A-DC17-46A6-B811-E8DAD1E64E52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D96FE1-B014-4BEB-B7A7-CE2A74A5A320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634B0C2-88C2-4626-9F99-F4CC8A04200C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance Correlation" sheetId="9" r:id="rId1"/>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F634B0C2-88C2-4626-9F99-F4CC8A04200C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70249D1D-E247-4B2C-ADAC-817DBB07522C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70249D1D-E247-4B2C-ADAC-817DBB07522C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E772F-6EE7-439A-9D0B-36F77AAF964B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance Correlation" sheetId="9" r:id="rId1"/>

--- a/Templates/TemplateComparison.xlsx
+++ b/Templates/TemplateComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MATLAB\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E772F-6EE7-439A-9D0B-36F77AAF964B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164D6E43-1CE1-44E6-8F1F-B524AF8D6350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="11400" yWindow="2055" windowWidth="15000" windowHeight="11505" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Distance Correlation" sheetId="9" r:id="rId1"/>
